--- a/data/trans_media/Q31A-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q31A-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 17,78</t>
+          <t>17,03; 17,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 17,58</t>
+          <t>16,54; 17,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,05</t>
+          <t>16,63; 17,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,23</t>
+          <t>17,12; 18,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 23,35</t>
+          <t>18,56; 23,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,21</t>
+          <t>17,39; 18,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,8</t>
+          <t>17,18; 17,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 19,27</t>
+          <t>17,47; 19,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,35</t>
+          <t>16,97; 17,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,2</t>
+          <t>16,72; 17,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,39</t>
+          <t>16,85; 17,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,4</t>
+          <t>16,83; 17,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,16</t>
+          <t>16,51; 17,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,95</t>
+          <t>17,22; 18,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,89</t>
+          <t>17,7; 18,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 18,75</t>
+          <t>17,76; 18,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 20,19</t>
+          <t>18,17; 20,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,49</t>
+          <t>16,91; 17,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,78</t>
+          <t>17,22; 17,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,64</t>
+          <t>17,14; 17,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,97</t>
+          <t>17,21; 18,06</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,09</t>
+          <t>16,58; 17,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,97</t>
+          <t>16,46; 17,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,59</t>
+          <t>16,5; 17,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,34</t>
+          <t>17,66; 18,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,87</t>
+          <t>18,09; 19,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 18,45</t>
+          <t>17,3; 18,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,33</t>
+          <t>17,96; 20,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,41</t>
+          <t>16,96; 17,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,17</t>
+          <t>17,43; 18,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,41</t>
+          <t>16,85; 17,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 18,15</t>
+          <t>17,08; 18,1</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,4</t>
+          <t>16,92; 17,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 18,55</t>
+          <t>17,41; 18,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 19,25</t>
+          <t>18,07; 19,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,45</t>
+          <t>17,59; 18,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 19,86</t>
+          <t>18,53; 19,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 22,31</t>
+          <t>19,92; 22,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,32</t>
+          <t>17,96; 19,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,7</t>
+          <t>17,24; 17,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,79</t>
+          <t>17,89; 18,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 20,18</t>
+          <t>19,03; 20,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,28</t>
+          <t>17,53; 18,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,42</t>
+          <t>16,71; 17,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,41</t>
+          <t>16,31; 17,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 16,68</t>
+          <t>16,03; 16,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,52</t>
+          <t>16,75; 17,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,66</t>
+          <t>17,03; 18,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 18,86</t>
+          <t>16,58; 18,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 19,51</t>
+          <t>16,14; 19,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 18,96</t>
+          <t>17,25; 18,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,67</t>
+          <t>16,96; 17,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,48</t>
+          <t>16,55; 17,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 17,12</t>
+          <t>16,18; 17,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,63</t>
+          <t>16,94; 17,64</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,55</t>
+          <t>17,05; 17,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,67</t>
+          <t>16,9; 17,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 16,92</t>
+          <t>16,38; 16,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,7</t>
+          <t>16,23; 16,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,63</t>
+          <t>17,53; 18,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 19,63</t>
+          <t>18,28; 19,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,79; 19,68</t>
+          <t>17,84; 19,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,87</t>
+          <t>16,99; 17,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,81</t>
+          <t>17,31; 17,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,15</t>
+          <t>17,48; 18,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,77</t>
+          <t>17,01; 17,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,0</t>
+          <t>16,57; 16,99</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,48</t>
+          <t>16,95; 17,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,83</t>
+          <t>17,0; 17,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,24</t>
+          <t>16,78; 17,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,8</t>
+          <t>17,84; 18,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,67</t>
+          <t>17,83; 18,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,23; 19,35</t>
+          <t>18,21; 19,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,21</t>
+          <t>17,54; 18,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,94</t>
+          <t>16,86; 19,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,75</t>
+          <t>17,3; 17,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,17</t>
+          <t>17,49; 18,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,54</t>
+          <t>17,13; 17,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,01</t>
+          <t>17,38; 18,97</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,22</t>
+          <t>16,81; 17,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,27; 17,71</t>
+          <t>17,29; 17,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,78</t>
+          <t>16,45; 16,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,19</t>
+          <t>16,59; 17,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 19,31</t>
+          <t>18,2; 19,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,39; 20,46</t>
+          <t>18,43; 20,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,77; 19,07</t>
+          <t>17,78; 19,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,0</t>
+          <t>17,11; 18,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,81</t>
+          <t>17,34; 17,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,51</t>
+          <t>17,72; 18,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,56</t>
+          <t>17,02; 17,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,29</t>
+          <t>16,82; 17,31</t>
         </is>
       </c>
     </row>
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,22; 17,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,32 +1864,32 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,96; 18,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,32; 18,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,66</t>
+          <t>17,52; 18,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,68; 17,96</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">

--- a/data/trans_media/Q31A-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q31A-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,71</t>
+          <t>17,04; 17,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,59</t>
+          <t>16,53; 17,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 18,25</t>
+          <t>17,17; 18,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,09</t>
+          <t>18,46; 22,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,78</t>
+          <t>17,21; 17,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 19,21</t>
+          <t>17,47; 19,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,22</t>
+          <t>16,68; 17,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,4</t>
+          <t>16,84; 17,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,37</t>
+          <t>16,81; 17,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 18,82</t>
+          <t>17,2; 18,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,83</t>
+          <t>17,7; 18,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 18,75</t>
+          <t>17,77; 18,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,48</t>
+          <t>16,94; 17,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,76</t>
+          <t>17,18; 17,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,62</t>
+          <t>17,11; 17,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,13</t>
+          <t>16,56; 17,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,43</t>
+          <t>16,88; 17,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,02</t>
+          <t>16,45; 17,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,39</t>
+          <t>17,63; 18,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 19,96</t>
+          <t>18,04; 19,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 18,45</t>
+          <t>17,33; 18,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,41</t>
+          <t>16,96; 17,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 18,22</t>
+          <t>17,43; 18,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,39</t>
+          <t>16,89; 17,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,4</t>
+          <t>16,94; 17,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,46</t>
+          <t>17,43; 18,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,27</t>
+          <t>18,04; 19,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,4</t>
+          <t>17,6; 18,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 19,88</t>
+          <t>18,54; 19,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 22,29</t>
+          <t>20,12; 22,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,65</t>
+          <t>17,26; 17,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,72</t>
+          <t>17,93; 18,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 20,21</t>
+          <t>19,01; 20,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,42</t>
+          <t>16,76; 17,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,27</t>
+          <t>16,3; 17,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,03; 16,65</t>
+          <t>16,04; 16,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 18,64</t>
+          <t>17,07; 18,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,58; 18,73</t>
+          <t>16,52; 18,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 19,34</t>
+          <t>16,17; 19,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,64</t>
+          <t>16,97; 17,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,51</t>
+          <t>16,55; 17,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 17,17</t>
+          <t>16,22; 17,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 17,57</t>
+          <t>17,01; 17,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,38; 16,9</t>
+          <t>16,39; 16,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,6</t>
+          <t>17,56; 18,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,28; 19,67</t>
+          <t>18,27; 19,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,84; 19,81</t>
+          <t>17,87; 19,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,8</t>
+          <t>17,3; 17,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,19</t>
+          <t>17,49; 18,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,8</t>
+          <t>17,01; 17,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,47</t>
+          <t>16,96; 17,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,81</t>
+          <t>16,95; 17,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,23</t>
+          <t>16,77; 17,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 18,67</t>
+          <t>17,83; 18,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 19,42</t>
+          <t>18,2; 19,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,54; 18,27</t>
+          <t>17,53; 18,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,73</t>
+          <t>17,28; 17,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,18</t>
+          <t>17,5; 18,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,53</t>
+          <t>17,14; 17,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,22</t>
+          <t>16,8; 17,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,75</t>
+          <t>17,29; 17,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,8</t>
+          <t>16,44; 16,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,2; 19,25</t>
+          <t>18,18; 19,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,43; 20,54</t>
+          <t>18,41; 20,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,16</t>
+          <t>17,78; 19,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,85</t>
+          <t>17,36; 17,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,55</t>
+          <t>17,0; 17,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,18</t>
+          <t>17,0; 17,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,52</t>
+          <t>17,21; 17,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,13</t>
+          <t>16,88; 17,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,36</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,47; 19,12</t>
+          <t>18,49; 19,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,32; 18,97</t>
+          <t>18,29; 18,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,53</t>
+          <t>17,34; 17,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,96</t>
+          <t>17,67; 17,98</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,46; 17,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
